--- a/Ubungen/Grundpraktikum/BNano-MP/Grundpraktikum Verusch B27 08.05.2024.xlsx
+++ b/Ubungen/Grundpraktikum/BNano-MP/Grundpraktikum Verusch B27 08.05.2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyeez\OneDrive\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junwe\Documents\GitHub\Uni-Wuerzburg-Bachlor-MathPhy\Ubungen\Grundpraktikum\BNano-MP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540C25CA-2ACD-49FE-A6F3-C39D2976A485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42FA708-8343-44AB-986A-0F7B3DFF400C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{98761EEA-5DEB-400A-8601-174E4FEA8176}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{98761EEA-5DEB-400A-8601-174E4FEA8176}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
   <si>
     <t>2.1 Ge-Diode</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sperrrichtung </t>
-  </si>
-  <si>
-    <t>1v</t>
   </si>
   <si>
     <t>Widerstände</t>
@@ -133,10 +130,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -241,24 +238,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -274,7 +271,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -572,37 +569,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE2AEEC-102D-422C-8430-014F1CA1823A}">
   <dimension ref="B3:AE42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="111" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" t="s">
         <v>18</v>
       </c>
-      <c r="S3" t="s">
-        <v>19</v>
-      </c>
       <c r="Z3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -640,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="R5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S5" t="s">
         <v>5</v>
@@ -661,25 +658,25 @@
         <v>5</v>
       </c>
       <c r="Z5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AA5" s="17" t="s">
+      <c r="AC5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AB5" s="17" t="s">
+      <c r="AD5" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="AC5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD5" s="18" t="s">
-        <v>29</v>
       </c>
       <c r="AE5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -701,10 +698,10 @@
         <v>8</v>
       </c>
       <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
         <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
       </c>
       <c r="K6" s="11">
         <v>8.7749999999999995E-2</v>
@@ -764,7 +761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C7" s="4">
         <v>0.39822999999999997</v>
       </c>
@@ -822,7 +819,7 @@
         <v>0.2000825</v>
       </c>
     </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C8" s="4">
         <v>0.60782999999999998</v>
       </c>
@@ -880,7 +877,7 @@
         <v>0.27522250000000004</v>
       </c>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C9" s="4">
         <v>0.7016</v>
       </c>
@@ -924,7 +921,7 @@
         <v>0.14999499999999999</v>
       </c>
       <c r="Z9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA9" s="13">
         <v>12.013</v>
@@ -941,10 +938,10 @@
         <v>0.79722500000000007</v>
       </c>
       <c r="AE9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C10" s="4">
         <v>0.80262999999999995</v>
       </c>
@@ -1002,7 +999,7 @@
         <v>0.79727499999999996</v>
       </c>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C11" s="4">
         <v>0.90054999999999996</v>
       </c>
@@ -1060,7 +1057,7 @@
         <v>0.79774999999999996</v>
       </c>
     </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C12" s="3">
         <v>1.0059100000000001</v>
       </c>
@@ -1118,7 +1115,7 @@
         <v>0.79815000000000003</v>
       </c>
     </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1123,8 @@
         <v>1.1006</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="0"/>
-        <v>3.3515000000000003E-2</v>
+        <f>C13*0.025+0.05</f>
+        <v>7.7515000000000001E-2</v>
       </c>
       <c r="E13" s="5">
         <v>8.1144999999999996</v>
@@ -1179,13 +1176,13 @@
         <v>0.79859999999999998</v>
       </c>
     </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C14" s="3">
         <v>1.216</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>3.6400000000000002E-2</v>
+        <f t="shared" ref="D14:D15" si="10">C14*0.025+0.05</f>
+        <v>8.0399999999999999E-2</v>
       </c>
       <c r="E14" s="5">
         <v>9.4779999999999998</v>
@@ -1237,13 +1234,13 @@
         <v>0.7990250000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C15" s="3">
         <v>1.2561</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>3.7402499999999998E-2</v>
+        <f t="shared" si="10"/>
+        <v>8.1402500000000003E-2</v>
       </c>
       <c r="E15" s="5">
         <v>9.9692000000000007</v>
@@ -1295,7 +1292,7 @@
         <v>0.79942500000000005</v>
       </c>
     </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:31" x14ac:dyDescent="0.35">
       <c r="K16" s="14">
         <v>0.76200000000000001</v>
       </c>
@@ -1311,7 +1308,7 @@
         <v>0.55754999999999999</v>
       </c>
       <c r="S16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T16" s="13">
         <v>11.952999999999999</v>
@@ -1328,7 +1325,7 @@
         <v>0.29054000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>10</v>
       </c>
@@ -1350,7 +1347,7 @@
         <v>12.016</v>
       </c>
       <c r="U17" s="16">
-        <f t="shared" ref="U17:U18" si="10">T17*0.025+0.5</f>
+        <f t="shared" ref="U17:U18" si="11">T17*0.025+0.5</f>
         <v>0.8004</v>
       </c>
       <c r="V17" s="13">
@@ -1361,7 +1358,7 @@
         <v>0.43574999999999997</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
@@ -1381,7 +1378,7 @@
         <v>12.129</v>
       </c>
       <c r="U18" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.80322500000000008</v>
       </c>
       <c r="V18" s="13">
@@ -1392,7 +1389,7 @@
         <v>0.68235500000000004</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -1400,8 +1397,8 @@
         <v>1.508</v>
       </c>
       <c r="D19" s="4">
-        <f>C19*0.025+0.006</f>
-        <v>4.3700000000000003E-2</v>
+        <f>C19*0.025+0.05</f>
+        <v>8.77E-2</v>
       </c>
       <c r="E19" s="6">
         <v>2.0000000000000001E-4</v>
@@ -1418,29 +1415,29 @@
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C20" s="3">
         <v>2.9996999999999998</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" ref="D20:D25" si="11">C20*0.025+0.006</f>
-        <v>8.0992500000000009E-2</v>
+        <f t="shared" ref="D20:D25" si="12">C20*0.025+0.05</f>
+        <v>0.12499250000000001</v>
       </c>
       <c r="E20" s="6">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" ref="F20:F28" si="12">E20*0.05+0.15</f>
+        <f t="shared" ref="F20:F28" si="13">E20*0.05+0.15</f>
         <v>0.15001499999999998</v>
       </c>
       <c r="R20" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" t="s">
         <v>21</v>
-      </c>
-      <c r="S20" t="s">
-        <v>22</v>
       </c>
       <c r="T20" s="11">
         <v>1.1820000000000001E-2</v>
@@ -1460,258 +1457,258 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C21" s="7">
         <v>4.5003000000000002</v>
       </c>
-      <c r="D21" s="7">
-        <f t="shared" si="11"/>
-        <v>0.11850750000000002</v>
+      <c r="D21" s="4">
+        <f t="shared" si="12"/>
+        <v>0.16250750000000003</v>
       </c>
       <c r="E21" s="6">
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.15021999999999999</v>
       </c>
       <c r="T21" s="14">
         <v>0.40022999999999997</v>
       </c>
       <c r="U21" s="14">
-        <f t="shared" ref="U21:U27" si="13">T21*0.025+0.006</f>
+        <f t="shared" ref="U21:U27" si="14">T21*0.025+0.006</f>
         <v>1.6005749999999999E-2</v>
       </c>
       <c r="V21" s="13">
         <v>1E-4</v>
       </c>
       <c r="W21" s="13">
-        <f t="shared" ref="W21:W27" si="14">V21*0.05+0.15</f>
+        <f t="shared" ref="W21:W27" si="15">V21*0.05+0.15</f>
         <v>0.150005</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C22" s="7">
         <v>6.0030999999999999</v>
       </c>
-      <c r="D22" s="7">
-        <f t="shared" si="11"/>
-        <v>0.15607750000000001</v>
+      <c r="D22" s="4">
+        <f t="shared" si="12"/>
+        <v>0.20007750000000002</v>
       </c>
       <c r="E22" s="6">
         <v>6.1000000000000004E-3</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.15030499999999999</v>
       </c>
       <c r="T22" s="14">
         <v>0.68661000000000005</v>
       </c>
       <c r="U22" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.3165250000000005E-2</v>
       </c>
       <c r="V22" s="13">
         <v>0.60140000000000005</v>
       </c>
       <c r="W22" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.18007000000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C23" s="7">
         <v>7.5011999999999999</v>
       </c>
-      <c r="D23" s="7">
-        <f t="shared" si="11"/>
-        <v>0.19353000000000001</v>
+      <c r="D23" s="4">
+        <f t="shared" si="12"/>
+        <v>0.23753000000000002</v>
       </c>
       <c r="E23" s="6">
         <v>8.2000000000000007E-3</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.15040999999999999</v>
       </c>
       <c r="T23" s="14">
         <v>0.745</v>
       </c>
       <c r="U23" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.4625000000000001E-2</v>
       </c>
       <c r="V23" s="13">
         <v>1.8835</v>
       </c>
       <c r="W23" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.244175</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C24" s="7">
         <v>9.0399999999999991</v>
       </c>
-      <c r="D24" s="7">
-        <f t="shared" si="11"/>
-        <v>0.23199999999999998</v>
+      <c r="D24" s="4">
+        <f t="shared" si="12"/>
+        <v>0.27599999999999997</v>
       </c>
       <c r="E24" s="6">
         <v>1.04E-2</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.15051999999999999</v>
       </c>
       <c r="T24" s="14">
         <v>0.80032000000000003</v>
       </c>
       <c r="U24" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.6008000000000003E-2</v>
       </c>
       <c r="V24" s="13">
         <v>4.1736000000000004</v>
       </c>
       <c r="W24" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.35868</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C25" s="7">
         <v>10.494</v>
       </c>
-      <c r="D25" s="7">
-        <f t="shared" si="11"/>
-        <v>0.26835000000000003</v>
+      <c r="D25" s="4">
+        <f t="shared" si="12"/>
+        <v>0.31235000000000002</v>
       </c>
       <c r="E25" s="8">
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.15063499999999999</v>
       </c>
       <c r="T25" s="14">
         <v>0.82443</v>
       </c>
       <c r="U25" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.6610750000000002E-2</v>
       </c>
       <c r="V25" s="13">
         <v>5.4504000000000001</v>
       </c>
       <c r="W25" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.42252000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>12.212</v>
       </c>
       <c r="D26" s="7">
-        <f>C26*0.025+0.05</f>
-        <v>0.3553</v>
+        <f>C26*0.025+0.5</f>
+        <v>0.80530000000000002</v>
       </c>
       <c r="E26" s="8">
         <v>1.5699999999999999E-2</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.150785</v>
       </c>
       <c r="T26" s="14">
         <v>0.85063</v>
       </c>
       <c r="U26" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.7265749999999998E-2</v>
       </c>
       <c r="V26" s="13">
         <v>6.9884000000000004</v>
       </c>
       <c r="W26" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.49942000000000009</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C27" s="7">
         <v>13.481999999999999</v>
       </c>
       <c r="D27" s="7">
-        <f t="shared" ref="D27:D28" si="15">C27*0.025+0.05</f>
-        <v>0.38705000000000001</v>
+        <f t="shared" ref="D27:D28" si="16">C27*0.025+0.5</f>
+        <v>0.83705000000000007</v>
       </c>
       <c r="E27" s="8">
         <v>1.7899999999999999E-2</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.150895</v>
       </c>
       <c r="T27" s="14">
         <v>0.90307999999999999</v>
       </c>
       <c r="U27" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.8576999999999998E-2</v>
       </c>
       <c r="V27" s="13">
         <v>10.474600000000001</v>
       </c>
       <c r="W27" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.67373000000000005</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C28" s="7">
         <v>15.016999999999999</v>
       </c>
       <c r="D28" s="7">
-        <f t="shared" si="15"/>
-        <v>0.425425</v>
+        <f t="shared" si="16"/>
+        <v>0.87542500000000001</v>
       </c>
       <c r="E28" s="8">
         <v>2.0799999999999999E-2</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.15104000000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="C32" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C32" s="9" t="s">
+      <c r="D32" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="F32" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="G32" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C33" s="10">
         <f>C6/(E6*10^(-3))</f>
         <v>1144.335825186889</v>
@@ -1726,13 +1723,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C34" s="10">
-        <f t="shared" ref="C34:C42" si="16">C7/(E7*10^(-3))</f>
+        <f t="shared" ref="C34:C42" si="17">C7/(E7*10^(-3))</f>
         <v>330.61851390618517</v>
       </c>
       <c r="D34" s="10">
-        <f t="shared" ref="D34:D42" si="17">(F7/E7)+(C7*D7/E7^2)</f>
+        <f t="shared" ref="D34:D42" si="18">(F7/E7)+(C7*D7/E7^2)</f>
         <v>0.17891263292092871</v>
       </c>
       <c r="E34" s="10"/>
@@ -1741,13 +1738,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C35" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>209.51707972837886</v>
       </c>
       <c r="D35" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.10323528028770218</v>
       </c>
       <c r="E35" s="10"/>
@@ -1756,13 +1753,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C36" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>184.63157894736841</v>
       </c>
       <c r="D36" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9.0617428254847643E-2</v>
       </c>
       <c r="E36" s="10"/>
@@ -1771,13 +1768,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C37" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>167.03710640777504</v>
       </c>
       <c r="D37" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8.2122941761118076E-2</v>
       </c>
       <c r="E37" s="10"/>
@@ -1786,13 +1783,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C38" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>153.83498462589682</v>
       </c>
       <c r="D38" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7.6372807019623609E-2</v>
       </c>
       <c r="E38" s="10"/>
@@ -1801,13 +1798,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C39" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>143.50052783246312</v>
       </c>
       <c r="D39" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7.2036251899596795E-2</v>
       </c>
       <c r="E39" s="10"/>
@@ -1816,14 +1813,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C40" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>135.63374206667078</v>
       </c>
       <c r="D40" s="10">
-        <f t="shared" si="17"/>
-        <v>6.9045630028389232E-2</v>
+        <f t="shared" si="18"/>
+        <v>6.9781089348240552E-2</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -1831,14 +1828,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C41" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>128.29710909474571</v>
       </c>
       <c r="D41" s="10">
-        <f t="shared" si="17"/>
-        <v>6.6318845196354587E-2</v>
+        <f t="shared" si="18"/>
+        <v>6.6914442664192622E-2</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -1846,14 +1843,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C42" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>125.99807406812982</v>
       </c>
       <c r="D42" s="10">
-        <f t="shared" si="17"/>
-        <v>6.5519063010605977E-2</v>
+        <f t="shared" si="18"/>
+        <v>6.6075167337833612E-2</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>

--- a/Ubungen/Grundpraktikum/BNano-MP/Grundpraktikum Verusch B27 08.05.2024.xlsx
+++ b/Ubungen/Grundpraktikum/BNano-MP/Grundpraktikum Verusch B27 08.05.2024.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junwe\Documents\GitHub\Uni-Wuerzburg-Bachlor-MathPhy\Ubungen\Grundpraktikum\BNano-MP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Uni-Wuerzburg-Bachlor-MathPhy\Ubungen\Grundpraktikum\BNano-MP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42FA708-8343-44AB-986A-0F7B3DFF400C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE07D6D-ACDA-4A50-B760-A44D49FFBBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{98761EEA-5DEB-400A-8601-174E4FEA8176}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98761EEA-5DEB-400A-8601-174E4FEA8176}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>2.1 Ge-Diode</t>
   </si>
@@ -80,15 +69,9 @@
     <t>r[Ohm]</t>
   </si>
   <si>
-    <t>Nr.</t>
-  </si>
-  <si>
     <t>dR [Ohm]</t>
   </si>
   <si>
-    <t>dr [Ohm]</t>
-  </si>
-  <si>
     <t>2.2 Si-Diode</t>
   </si>
   <si>
@@ -123,17 +106,58 @@
   </si>
   <si>
     <t>dU_a [V]</t>
+  </si>
+  <si>
+    <t>Differentiellen Widerstand</t>
+  </si>
+  <si>
+    <t>dr[Ohm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>dR [Kästchen]</t>
+  </si>
+  <si>
+    <t>R [Kästchen]</t>
+  </si>
+  <si>
+    <t>U [Kästchen]</t>
+  </si>
+  <si>
+    <t>dU [Kästchen]</t>
+  </si>
+  <si>
+    <t>r [Kästchen]</t>
+  </si>
+  <si>
+    <t>dr [Kästchen]</t>
+  </si>
+  <si>
+    <t>In Kästchen</t>
+  </si>
+  <si>
+    <t>2.5 LED</t>
+  </si>
+  <si>
+    <t>Sperrstrom</t>
+  </si>
+  <si>
+    <t>I [Kästchen]</t>
+  </si>
+  <si>
+    <t>dI [Kästchen]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
+  <numFmts count="3">
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -233,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -249,10 +273,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,39 +605,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE2AEEC-102D-422C-8430-014F1CA1823A}">
-  <dimension ref="B3:AE42"/>
+  <dimension ref="B3:AL64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="111" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AI4" s="30">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="AJ4" s="30">
+        <f>AI4*0.025+0.05</f>
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="AK4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="29">
+        <f>ABS(0.05*AK4+0.15)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -637,7 +695,7 @@
         <v>5</v>
       </c>
       <c r="R5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S5" t="s">
         <v>5</v>
@@ -658,25 +716,39 @@
         <v>5</v>
       </c>
       <c r="Z5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD5" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="AA5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD5" s="18" t="s">
-        <v>28</v>
       </c>
       <c r="AE5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AI5" s="30">
+        <v>0.40739999999999998</v>
+      </c>
+      <c r="AJ5" s="30">
+        <f t="shared" ref="AJ5:AJ19" si="0">AI5*0.025+0.05</f>
+        <v>6.0185000000000002E-2</v>
+      </c>
+      <c r="AK5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="29">
+        <f t="shared" ref="AL5:AL19" si="1">ABS(0.05*AK5+0.15)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -698,10 +770,10 @@
         <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K6" s="11">
         <v>8.7749999999999995E-2</v>
@@ -724,11 +796,10 @@
         <v>7</v>
       </c>
       <c r="T6" s="14">
-        <v>1.0873999999999999</v>
+        <v>1.087</v>
       </c>
       <c r="U6" s="14">
-        <f>T6*0.025+0.05</f>
-        <v>7.7185000000000004E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="V6" s="12">
         <v>-1E-4</v>
@@ -760,168 +831,210 @@
       <c r="AE6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AI6" s="30">
+        <v>0.60370000000000001</v>
+      </c>
+      <c r="AJ6" s="30">
+        <f t="shared" si="0"/>
+        <v>6.5092499999999998E-2</v>
+      </c>
+      <c r="AK6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="29">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C7" s="4">
         <v>0.39822999999999997</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" ref="D7:D15" si="0">C7*0.025+0.006</f>
+        <f t="shared" ref="D7:D12" si="2">C7*0.025+0.006</f>
         <v>1.5955749999999998E-2</v>
       </c>
       <c r="E7" s="5">
         <v>1.2044999999999999</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" ref="F7:F15" si="1">E7*0.05+0.15</f>
+        <f t="shared" ref="F7:F15" si="3">E7*0.05+0.15</f>
         <v>0.210225</v>
       </c>
       <c r="K7" s="12">
         <v>0.10780000000000001</v>
       </c>
       <c r="L7" s="11">
-        <f t="shared" ref="L7:L17" si="2">K7*0.025+0.006</f>
+        <f t="shared" ref="L7:L17" si="4">K7*0.025+0.006</f>
         <v>8.6950000000000013E-3</v>
       </c>
       <c r="M7" s="13">
         <v>1E-4</v>
       </c>
       <c r="N7" s="13">
-        <f t="shared" ref="N7:N17" si="3">M7*0.05+0.15</f>
+        <f t="shared" ref="N7:N17" si="5">M7*0.05+0.15</f>
         <v>0.150005</v>
       </c>
       <c r="T7" s="13">
         <v>2.0560999999999998</v>
       </c>
       <c r="U7" s="13">
-        <f t="shared" ref="U7:U15" si="4">T7*0.025+0.05</f>
+        <f t="shared" ref="U7:U15" si="6">T7*0.025+0.05</f>
         <v>0.10140250000000001</v>
       </c>
       <c r="V7" s="12">
         <v>-1E-4</v>
       </c>
       <c r="W7" s="13">
-        <f t="shared" ref="W7:W18" si="5">ABS(0.05*V7+0.15)</f>
+        <f t="shared" ref="W7:W18" si="7">ABS(0.05*V7+0.15)</f>
         <v>0.14999499999999999</v>
       </c>
       <c r="AA7" s="13">
         <v>6.0084999999999997</v>
       </c>
       <c r="AB7" s="13">
-        <f t="shared" ref="AB7:AB8" si="6">AA7*0.025+0.05</f>
+        <f t="shared" ref="AB7:AB8" si="8">AA7*0.025+0.05</f>
         <v>0.20021250000000002</v>
       </c>
       <c r="AC7" s="13">
         <v>6.0033000000000003</v>
       </c>
       <c r="AD7" s="13">
-        <f t="shared" ref="AD7:AD8" si="7">AC7*0.025+0.05</f>
+        <f t="shared" ref="AD7:AD8" si="9">AC7*0.025+0.05</f>
         <v>0.2000825</v>
       </c>
-    </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AI7" s="30">
+        <v>0.82650000000000001</v>
+      </c>
+      <c r="AJ7" s="30">
+        <f t="shared" si="0"/>
+        <v>7.0662500000000003E-2</v>
+      </c>
+      <c r="AK7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="29">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C8" s="4">
         <v>0.60782999999999998</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.1195749999999999E-2</v>
       </c>
       <c r="E8" s="5">
         <v>2.9011</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.29505500000000001</v>
       </c>
       <c r="K8" s="14">
         <v>0.1915</v>
       </c>
       <c r="L8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.07875E-2</v>
       </c>
       <c r="M8" s="13">
         <v>1E-4</v>
       </c>
       <c r="N8" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.150005</v>
       </c>
       <c r="T8" s="13">
         <v>3.0324</v>
       </c>
       <c r="U8" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.12581000000000001</v>
       </c>
       <c r="V8" s="12">
         <v>-1E-4</v>
       </c>
       <c r="W8" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.14999499999999999</v>
       </c>
       <c r="AA8" s="13">
         <v>9.0122999999999998</v>
       </c>
       <c r="AB8" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.27530749999999998</v>
       </c>
       <c r="AC8" s="13">
         <v>9.0089000000000006</v>
       </c>
       <c r="AD8" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.27522250000000004</v>
       </c>
-    </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AI8" s="30">
+        <v>1.0227999999999999</v>
+      </c>
+      <c r="AJ8" s="30">
+        <f t="shared" si="0"/>
+        <v>7.5569999999999998E-2</v>
+      </c>
+      <c r="AK8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="29">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C9" s="4">
         <v>0.7016</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.3539999999999998E-2</v>
       </c>
       <c r="E9" s="5">
         <v>3.8</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.33999999999999997</v>
       </c>
       <c r="K9" s="14">
         <v>0.40583000000000002</v>
       </c>
       <c r="L9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.614575E-2</v>
       </c>
       <c r="M9" s="13">
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="N9" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.150725</v>
       </c>
       <c r="T9" s="13">
         <v>4.0110000000000001</v>
       </c>
       <c r="U9" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.15027499999999999</v>
       </c>
       <c r="V9" s="12">
         <v>-1E-4</v>
       </c>
       <c r="W9" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.14999499999999999</v>
       </c>
       <c r="Z9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA9" s="13">
         <v>12.013</v>
@@ -938,184 +1051,240 @@
         <v>0.79722500000000007</v>
       </c>
       <c r="AE9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="AI9" s="30">
+        <v>1.2</v>
+      </c>
+      <c r="AJ9" s="30">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="AK9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="29">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C10" s="4">
         <v>0.80262999999999995</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.6065749999999999E-2</v>
       </c>
       <c r="E10" s="5">
         <v>4.8051000000000004</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.39025500000000002</v>
       </c>
       <c r="K10" s="14">
         <v>0.46617999999999998</v>
       </c>
       <c r="L10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.76545E-2</v>
       </c>
       <c r="M10" s="13">
         <v>7.1300000000000002E-2</v>
       </c>
       <c r="N10" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.15356500000000001</v>
       </c>
       <c r="T10" s="13">
         <v>5.0578000000000003</v>
       </c>
       <c r="U10" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.17644500000000002</v>
       </c>
       <c r="V10" s="12">
         <v>-1E-4</v>
       </c>
       <c r="W10" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.14999499999999999</v>
       </c>
       <c r="AA10" s="13">
         <v>15.03</v>
       </c>
       <c r="AB10" s="13">
-        <f t="shared" ref="AB10:AB15" si="8">AA10*0.025+0.5</f>
+        <f t="shared" ref="AB10:AB15" si="10">AA10*0.025+0.5</f>
         <v>0.87575000000000003</v>
       </c>
       <c r="AC10" s="13">
         <v>11.891</v>
       </c>
       <c r="AD10" s="13">
-        <f t="shared" ref="AD10:AD15" si="9">AC10*0.025+0.5</f>
+        <f t="shared" ref="AD10:AD15" si="11">AC10*0.025+0.5</f>
         <v>0.79727499999999996</v>
       </c>
-    </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AI10" s="30">
+        <v>1.403</v>
+      </c>
+      <c r="AJ10" s="30">
+        <f t="shared" si="0"/>
+        <v>8.5075000000000012E-2</v>
+      </c>
+      <c r="AK10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="29">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C11" s="4">
         <v>0.90054999999999996</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8513749999999997E-2</v>
       </c>
       <c r="E11" s="5">
         <v>5.8540000000000001</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.44269999999999998</v>
       </c>
       <c r="K11" s="14">
         <v>0.58711999999999998</v>
       </c>
       <c r="L11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.0678000000000002E-2</v>
       </c>
       <c r="M11" s="13">
         <v>1.0350999999999999</v>
       </c>
       <c r="N11" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.20175499999999999</v>
       </c>
       <c r="T11" s="13">
         <v>6.0194999999999999</v>
       </c>
       <c r="U11" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.20048749999999999</v>
       </c>
       <c r="V11" s="12">
         <v>-1E-4</v>
       </c>
       <c r="W11" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.14999499999999999</v>
       </c>
       <c r="AA11" s="13">
         <v>18.047999999999998</v>
       </c>
       <c r="AB11" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.95120000000000005</v>
       </c>
       <c r="AC11" s="13">
         <v>11.91</v>
       </c>
       <c r="AD11" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.79774999999999996</v>
       </c>
-    </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AI11" s="30">
+        <v>1.5864</v>
+      </c>
+      <c r="AJ11" s="30">
+        <f t="shared" si="0"/>
+        <v>8.9660000000000004E-2</v>
+      </c>
+      <c r="AK11" s="29">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="AL11" s="29">
+        <f t="shared" si="1"/>
+        <v>0.15026999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C12" s="3">
         <v>1.0059100000000001</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.1147750000000002E-2</v>
       </c>
       <c r="E12" s="5">
         <v>7.0098000000000003</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.50048999999999999</v>
       </c>
       <c r="K12" s="14">
         <v>0.61721999999999999</v>
       </c>
       <c r="L12" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.1430499999999998E-2</v>
       </c>
       <c r="M12" s="13">
         <v>1.6920999999999999</v>
       </c>
       <c r="N12" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.23460500000000001</v>
       </c>
       <c r="T12" s="13">
         <v>7.0213000000000001</v>
       </c>
       <c r="U12" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.22553250000000002</v>
       </c>
       <c r="V12" s="12">
         <v>-1E-4</v>
       </c>
       <c r="W12" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.14999499999999999</v>
       </c>
-      <c r="AA12" s="13">
+      <c r="AA12" s="27">
         <v>21.050999999999998</v>
       </c>
-      <c r="AB12" s="13">
-        <f t="shared" si="8"/>
+      <c r="AB12" s="27">
+        <f t="shared" si="10"/>
         <v>1.026275</v>
       </c>
       <c r="AC12" s="13">
         <v>11.926</v>
       </c>
       <c r="AD12" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.79815000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AI12" s="30">
+        <v>1.6512</v>
+      </c>
+      <c r="AJ12" s="30">
+        <f t="shared" si="0"/>
+        <v>9.128E-2</v>
+      </c>
+      <c r="AK12" s="29">
+        <v>2.23E-2</v>
+      </c>
+      <c r="AL12" s="29">
+        <f t="shared" si="1"/>
+        <v>0.151115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -1130,190 +1299,232 @@
         <v>8.1144999999999996</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.55572500000000002</v>
       </c>
       <c r="K13" s="14">
         <v>0.64693000000000001</v>
       </c>
       <c r="L13" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.2173249999999999E-2</v>
       </c>
       <c r="M13" s="13">
         <v>2.6183000000000001</v>
       </c>
       <c r="N13" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.28091500000000003</v>
       </c>
       <c r="T13" s="13">
         <v>8.0220000000000002</v>
       </c>
       <c r="U13" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.25054999999999999</v>
       </c>
       <c r="V13" s="12">
         <v>-1E-4</v>
       </c>
       <c r="W13" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.14999499999999999</v>
       </c>
-      <c r="AA13" s="13">
+      <c r="AA13" s="27">
         <v>24.015000000000001</v>
       </c>
-      <c r="AB13" s="13">
-        <f t="shared" si="8"/>
+      <c r="AB13" s="27">
+        <f t="shared" si="10"/>
         <v>1.1003750000000001</v>
       </c>
       <c r="AC13" s="13">
         <v>11.944000000000001</v>
       </c>
       <c r="AD13" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.79859999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AI13" s="30">
+        <v>1.7038</v>
+      </c>
+      <c r="AJ13" s="30">
+        <f t="shared" si="0"/>
+        <v>9.2595000000000011E-2</v>
+      </c>
+      <c r="AK13" s="29">
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="AL13" s="29">
+        <f t="shared" si="1"/>
+        <v>0.154025</v>
+      </c>
+    </row>
+    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C14" s="3">
         <v>1.216</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" ref="D14:D15" si="10">C14*0.025+0.05</f>
+        <f t="shared" ref="D14:D15" si="12">C14*0.025+0.05</f>
         <v>8.0399999999999999E-2</v>
       </c>
       <c r="E14" s="5">
         <v>9.4779999999999998</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.62390000000000001</v>
       </c>
       <c r="K14" s="14">
         <v>0.70045999999999997</v>
       </c>
       <c r="L14" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3511499999999998E-2</v>
       </c>
       <c r="M14" s="13">
         <v>4.95</v>
       </c>
       <c r="N14" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.39750000000000002</v>
       </c>
       <c r="T14" s="13">
         <v>9.0431000000000008</v>
       </c>
       <c r="U14" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.27607750000000003</v>
       </c>
       <c r="V14" s="12">
         <v>-1E-4</v>
       </c>
       <c r="W14" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.14999499999999999</v>
       </c>
-      <c r="AA14" s="13">
+      <c r="AA14" s="27">
         <v>27.029</v>
       </c>
-      <c r="AB14" s="13">
-        <f t="shared" si="8"/>
+      <c r="AB14" s="27">
+        <f t="shared" si="10"/>
         <v>1.1757249999999999</v>
       </c>
       <c r="AC14" s="13">
         <v>11.961</v>
       </c>
       <c r="AD14" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7990250000000001</v>
       </c>
-    </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AI14" s="30">
+        <v>1.7484</v>
+      </c>
+      <c r="AJ14" s="30">
+        <f t="shared" si="0"/>
+        <v>9.3710000000000002E-2</v>
+      </c>
+      <c r="AK14" s="29">
+        <v>0.20349999999999999</v>
+      </c>
+      <c r="AL14" s="29">
+        <f t="shared" si="1"/>
+        <v>0.16017499999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C15" s="3">
         <v>1.2561</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.1402500000000003E-2</v>
       </c>
       <c r="E15" s="5">
         <v>9.9692000000000007</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.64846000000000004</v>
       </c>
       <c r="K15" s="14">
         <v>0.71933999999999998</v>
       </c>
       <c r="L15" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3983499999999998E-2</v>
       </c>
       <c r="M15" s="13">
         <v>5.9550999999999998</v>
       </c>
       <c r="N15" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.44775500000000001</v>
       </c>
       <c r="T15" s="13">
         <v>11.901</v>
       </c>
-      <c r="U15" s="11">
-        <f t="shared" si="4"/>
+      <c r="U15" s="13">
+        <f t="shared" si="6"/>
         <v>0.34752499999999997</v>
       </c>
       <c r="V15" s="13">
         <v>0.77649999999999997</v>
       </c>
       <c r="W15" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.18882499999999999</v>
       </c>
-      <c r="AA15" s="13">
+      <c r="AA15" s="27">
         <v>30.015000000000001</v>
       </c>
-      <c r="AB15" s="13">
-        <f t="shared" si="8"/>
+      <c r="AB15" s="27">
+        <f t="shared" si="10"/>
         <v>1.250375</v>
       </c>
       <c r="AC15" s="13">
         <v>11.977</v>
       </c>
       <c r="AD15" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.79942500000000005</v>
       </c>
-    </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="AI15" s="30">
+        <v>1.8072999999999999</v>
+      </c>
+      <c r="AJ15" s="30">
+        <f t="shared" si="0"/>
+        <v>9.5182500000000003E-2</v>
+      </c>
+      <c r="AK15" s="29">
+        <v>0.64570000000000005</v>
+      </c>
+      <c r="AL15" s="29">
+        <f t="shared" si="1"/>
+        <v>0.182285</v>
+      </c>
+    </row>
+    <row r="16" spans="2:38" x14ac:dyDescent="0.25">
       <c r="K16" s="14">
         <v>0.76200000000000001</v>
       </c>
       <c r="L16" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5050000000000003E-2</v>
       </c>
       <c r="M16" s="13">
         <v>8.1509999999999998</v>
       </c>
       <c r="N16" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.55754999999999999</v>
       </c>
       <c r="S16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="T16" s="13">
         <v>11.952999999999999</v>
       </c>
-      <c r="U16" s="15">
+      <c r="U16" s="13">
         <f>T16*0.025+0.5</f>
         <v>0.79882500000000001</v>
       </c>
@@ -1321,11 +1532,25 @@
         <v>2.8108</v>
       </c>
       <c r="W16" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.29054000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="AI16" s="30">
+        <v>1.8526</v>
+      </c>
+      <c r="AJ16" s="30">
+        <f t="shared" si="0"/>
+        <v>9.6315000000000012E-2</v>
+      </c>
+      <c r="AK16" s="29">
+        <v>1.4831000000000001</v>
+      </c>
+      <c r="AL16" s="29">
+        <f t="shared" si="1"/>
+        <v>0.22415499999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>10</v>
       </c>
@@ -1333,32 +1558,46 @@
         <v>0.78893000000000002</v>
       </c>
       <c r="L17" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5723250000000003E-2</v>
       </c>
       <c r="M17" s="13">
         <v>10.259399999999999</v>
       </c>
       <c r="N17" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.66297000000000006</v>
       </c>
       <c r="T17" s="13">
         <v>12.016</v>
       </c>
-      <c r="U17" s="16">
-        <f t="shared" ref="U17:U18" si="11">T17*0.025+0.5</f>
+      <c r="U17" s="13">
+        <f t="shared" ref="U17:U18" si="13">T17*0.025+0.5</f>
         <v>0.8004</v>
       </c>
       <c r="V17" s="13">
         <v>5.7149999999999999</v>
       </c>
       <c r="W17" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.43574999999999997</v>
       </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="AI17" s="30">
+        <v>1.9005000000000001</v>
+      </c>
+      <c r="AJ17" s="30">
+        <f t="shared" si="0"/>
+        <v>9.7512500000000002E-2</v>
+      </c>
+      <c r="AK17" s="29">
+        <v>3.0669</v>
+      </c>
+      <c r="AL17" s="29">
+        <f t="shared" si="1"/>
+        <v>0.30334499999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
@@ -1377,19 +1616,33 @@
       <c r="T18" s="13">
         <v>12.129</v>
       </c>
-      <c r="U18" s="16">
-        <f t="shared" si="11"/>
+      <c r="U18" s="13">
+        <f t="shared" si="13"/>
         <v>0.80322500000000008</v>
       </c>
       <c r="V18" s="13">
         <v>10.6471</v>
       </c>
       <c r="W18" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.68235500000000004</v>
       </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="AI18" s="30">
+        <v>1.9544999999999999</v>
+      </c>
+      <c r="AJ18" s="30">
+        <f t="shared" si="0"/>
+        <v>9.8862500000000006E-2</v>
+      </c>
+      <c r="AK18" s="29">
+        <v>5.6933999999999996</v>
+      </c>
+      <c r="AL18" s="29">
+        <f t="shared" si="1"/>
+        <v>0.43467</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -1409,13 +1662,46 @@
       </c>
       <c r="G19" t="s">
         <v>8</v>
+      </c>
+      <c r="J19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19">
+        <f>K6*100</f>
+        <v>8.7749999999999986</v>
+      </c>
+      <c r="L19">
+        <f>L6*100</f>
+        <v>0.81937499999999996</v>
+      </c>
+      <c r="M19">
+        <f>M6*20</f>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>N6*20</f>
+        <v>3</v>
       </c>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="AI19" s="30">
+        <v>2</v>
+      </c>
+      <c r="AJ19" s="30">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="AK19" s="29">
+        <v>8.4215</v>
+      </c>
+      <c r="AL19" s="29">
+        <f t="shared" si="1"/>
+        <v>0.571075</v>
+      </c>
+    </row>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>7</v>
       </c>
@@ -1423,21 +1709,37 @@
         <v>2.9996999999999998</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" ref="D20:D25" si="12">C20*0.025+0.05</f>
+        <f t="shared" ref="D20:D25" si="14">C20*0.025+0.05</f>
         <v>0.12499250000000001</v>
       </c>
       <c r="E20" s="6">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" ref="F20:F28" si="13">E20*0.05+0.15</f>
+        <f t="shared" ref="F20:F28" si="15">E20*0.05+0.15</f>
         <v>0.15001499999999998</v>
       </c>
+      <c r="K20">
+        <f t="shared" ref="K20:L30" si="16">K7*100</f>
+        <v>10.780000000000001</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="16"/>
+        <v>0.86950000000000016</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ref="M20:N30" si="17">M7*20</f>
+        <v>2E-3</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="17"/>
+        <v>3.0000999999999998</v>
+      </c>
       <c r="R20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="T20" s="11">
         <v>1.1820000000000001E-2</v>
@@ -1457,159 +1759,242 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C21" s="7">
         <v>4.5003000000000002</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.16250750000000003</v>
       </c>
       <c r="E21" s="6">
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.15021999999999999</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="16"/>
+        <v>19.149999999999999</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="16"/>
+        <v>1.0787500000000001</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="17"/>
+        <v>2E-3</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="17"/>
+        <v>3.0000999999999998</v>
+      </c>
+      <c r="P21" t="s">
+        <v>29</v>
       </c>
       <c r="T21" s="14">
         <v>0.40022999999999997</v>
       </c>
       <c r="U21" s="14">
-        <f t="shared" ref="U21:U27" si="14">T21*0.025+0.006</f>
+        <f t="shared" ref="U21:U27" si="18">T21*0.025+0.006</f>
         <v>1.6005749999999999E-2</v>
       </c>
       <c r="V21" s="13">
         <v>1E-4</v>
       </c>
       <c r="W21" s="13">
-        <f t="shared" ref="W21:W27" si="15">V21*0.05+0.15</f>
+        <f t="shared" ref="W21:W27" si="19">V21*0.05+0.15</f>
         <v>0.150005</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C22" s="7">
         <v>6.0030999999999999</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.20007750000000002</v>
       </c>
       <c r="E22" s="6">
         <v>6.1000000000000004E-3</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.15030499999999999</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="16"/>
+        <v>40.583000000000006</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="16"/>
+        <v>1.6145750000000001</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="17"/>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="17"/>
+        <v>3.0145</v>
       </c>
       <c r="T22" s="14">
         <v>0.68661000000000005</v>
       </c>
       <c r="U22" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.3165250000000005E-2</v>
       </c>
       <c r="V22" s="13">
         <v>0.60140000000000005</v>
       </c>
       <c r="W22" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.18007000000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C23" s="7">
         <v>7.5011999999999999</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.23753000000000002</v>
       </c>
       <c r="E23" s="6">
         <v>8.2000000000000007E-3</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.15040999999999999</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="16"/>
+        <v>46.617999999999995</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="16"/>
+        <v>1.76545</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="17"/>
+        <v>1.4260000000000002</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="17"/>
+        <v>3.0712999999999999</v>
       </c>
       <c r="T23" s="14">
         <v>0.745</v>
       </c>
       <c r="U23" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.4625000000000001E-2</v>
       </c>
       <c r="V23" s="13">
         <v>1.8835</v>
       </c>
       <c r="W23" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.244175</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C24" s="7">
         <v>9.0399999999999991</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.27599999999999997</v>
       </c>
       <c r="E24" s="6">
         <v>1.04E-2</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.15051999999999999</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="16"/>
+        <v>58.711999999999996</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="16"/>
+        <v>2.0678000000000001</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="17"/>
+        <v>20.701999999999998</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="17"/>
+        <v>4.0350999999999999</v>
       </c>
       <c r="T24" s="14">
         <v>0.80032000000000003</v>
       </c>
       <c r="U24" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.6008000000000003E-2</v>
       </c>
       <c r="V24" s="13">
         <v>4.1736000000000004</v>
       </c>
       <c r="W24" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.35868</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C25" s="7">
         <v>10.494</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.31235000000000002</v>
       </c>
       <c r="E25" s="8">
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.15063499999999999</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="16"/>
+        <v>61.722000000000001</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="16"/>
+        <v>2.1430499999999997</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="17"/>
+        <v>33.841999999999999</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="17"/>
+        <v>4.6920999999999999</v>
       </c>
       <c r="T25" s="14">
         <v>0.82443</v>
       </c>
       <c r="U25" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.6610750000000002E-2</v>
       </c>
       <c r="V25" s="13">
         <v>5.4504000000000001</v>
       </c>
       <c r="W25" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.42252000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C26" s="7">
         <v>12.212</v>
@@ -1622,243 +2007,1057 @@
         <v>1.5699999999999999E-2</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.150785</v>
+      </c>
+      <c r="H26" s="23">
+        <f>(C26-12)*10/1.5</f>
+        <v>1.4133333333333316</v>
+      </c>
+      <c r="I26" s="23">
+        <f>(D26)*10/1.5</f>
+        <v>5.3686666666666669</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="16"/>
+        <v>64.692999999999998</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="16"/>
+        <v>2.2173249999999998</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="17"/>
+        <v>52.366</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="17"/>
+        <v>5.6183000000000005</v>
       </c>
       <c r="T26" s="14">
         <v>0.85063</v>
       </c>
       <c r="U26" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.7265749999999998E-2</v>
       </c>
       <c r="V26" s="13">
         <v>6.9884000000000004</v>
       </c>
       <c r="W26" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.49942000000000009</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C27" s="7">
         <v>13.481999999999999</v>
       </c>
       <c r="D27" s="7">
-        <f t="shared" ref="D27:D28" si="16">C27*0.025+0.5</f>
+        <f t="shared" ref="D27:D28" si="20">C27*0.025+0.5</f>
         <v>0.83705000000000007</v>
       </c>
       <c r="E27" s="8">
         <v>1.7899999999999999E-2</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.150895</v>
+      </c>
+      <c r="H27" s="23">
+        <f t="shared" ref="H27:H28" si="21">(C27-12)*10/1.5</f>
+        <v>9.8799999999999955</v>
+      </c>
+      <c r="I27" s="23">
+        <f t="shared" ref="I27:I28" si="22">(D27)*10/1.5</f>
+        <v>5.5803333333333329</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="16"/>
+        <v>70.045999999999992</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="16"/>
+        <v>2.3511499999999996</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="17"/>
+        <v>99</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="17"/>
+        <v>7.95</v>
       </c>
       <c r="T27" s="14">
         <v>0.90307999999999999</v>
       </c>
       <c r="U27" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.8576999999999998E-2</v>
       </c>
       <c r="V27" s="13">
         <v>10.474600000000001</v>
       </c>
       <c r="W27" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.67373000000000005</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C28" s="7">
         <v>15.016999999999999</v>
       </c>
       <c r="D28" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.87542500000000001</v>
       </c>
       <c r="E28" s="8">
         <v>2.0799999999999999E-2</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.15104000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="H28" s="23">
+        <f t="shared" si="21"/>
+        <v>20.11333333333333</v>
+      </c>
+      <c r="I28" s="23">
+        <f t="shared" si="22"/>
+        <v>5.8361666666666672</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="16"/>
+        <v>71.933999999999997</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="16"/>
+        <v>2.3983499999999998</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="17"/>
+        <v>119.102</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="17"/>
+        <v>8.9550999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <f>K16*100</f>
+        <v>76.2</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ref="L29:L30" si="23">L16*100</f>
+        <v>2.5050000000000003</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="17"/>
+        <v>163.01999999999998</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="17"/>
+        <v>11.151</v>
+      </c>
+    </row>
+    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <f t="shared" si="16"/>
+        <v>78.893000000000001</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="23"/>
+        <v>2.5723250000000002</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="17"/>
+        <v>205.18799999999999</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="17"/>
+        <v>13.259400000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="C32" s="9" t="s">
+    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="E32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="23">
+        <v>4.9720000000000004</v>
+      </c>
+      <c r="L32" s="22">
+        <f>K32*0.025+0.5</f>
+        <v>0.62430000000000008</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <f>D6</f>
+        <v>1.0975E-2</v>
+      </c>
+      <c r="C33" s="4">
+        <f>C6</f>
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D33" s="10">
+        <f t="shared" ref="D33:D42" si="24">C6/(E6*10^(-3))</f>
+        <v>1144.335825186889</v>
+      </c>
+      <c r="E33" s="10">
+        <f t="shared" ref="E33:E42" si="25">D33*SQRT((D6/C6)^2+(F6/E6)^2)</f>
+        <v>1046.1857850211727</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:F42" si="26">C33*100</f>
+        <v>19.900000000000002</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:G42" si="27">D6*100</f>
+        <v>1.0975000000000001</v>
+      </c>
+      <c r="H33" s="19">
+        <f t="shared" ref="H33:H42" si="28">D33*10/16</f>
+        <v>715.20989074180557</v>
+      </c>
+      <c r="I33" s="19">
+        <f t="shared" ref="I33:I42" si="29">E33*10/16</f>
+        <v>653.86611563823294</v>
+      </c>
+      <c r="K33" s="23">
+        <v>10.077999999999999</v>
+      </c>
+      <c r="L33" s="22">
+        <f t="shared" ref="L33:L35" si="30">K33*0.025+0.5</f>
+        <v>0.75195000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
+        <f t="shared" ref="B34:B42" si="31">D7</f>
+        <v>1.5955749999999998E-2</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" ref="C34:C42" si="32">C7</f>
+        <v>0.39822999999999997</v>
+      </c>
+      <c r="D34" s="20">
+        <f t="shared" si="24"/>
+        <v>330.61851390618517</v>
+      </c>
+      <c r="E34" s="20">
+        <f t="shared" si="25"/>
+        <v>59.204818899402007</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="26"/>
+        <v>39.823</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="27"/>
+        <v>1.5955749999999997</v>
+      </c>
+      <c r="H34" s="19">
+        <f t="shared" si="28"/>
+        <v>206.63657119136573</v>
+      </c>
+      <c r="I34" s="19">
+        <f t="shared" si="29"/>
+        <v>37.003011812126253</v>
+      </c>
+      <c r="K34" s="23">
+        <v>12.455</v>
+      </c>
+      <c r="L34" s="22">
+        <f t="shared" si="30"/>
+        <v>0.81137499999999996</v>
+      </c>
+      <c r="M34">
+        <f>(K34-12)*10/1.5</f>
+        <v>3.0333333333333337</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="4">
+        <f t="shared" si="31"/>
+        <v>2.1195749999999999E-2</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" si="32"/>
+        <v>0.60782999999999998</v>
+      </c>
+      <c r="D35" s="20">
+        <f t="shared" si="24"/>
+        <v>209.51707972837886</v>
+      </c>
+      <c r="E35" s="20">
+        <f t="shared" si="25"/>
+        <v>22.526554873209623</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="26"/>
+        <v>60.783000000000001</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="27"/>
+        <v>2.1195749999999998</v>
+      </c>
+      <c r="H35" s="19">
+        <f t="shared" si="28"/>
+        <v>130.94817483023678</v>
+      </c>
+      <c r="I35" s="19">
+        <f t="shared" si="29"/>
+        <v>14.079096795756014</v>
+      </c>
+      <c r="K35" s="23">
+        <v>14.988</v>
+      </c>
+      <c r="L35" s="22">
+        <f t="shared" si="30"/>
+        <v>0.87470000000000003</v>
+      </c>
+      <c r="M35">
+        <f>(K35-12)*10/1.5</f>
+        <v>19.919999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="4">
+        <f t="shared" si="31"/>
+        <v>2.3539999999999998E-2</v>
+      </c>
+      <c r="C36" s="4">
+        <f t="shared" si="32"/>
+        <v>0.7016</v>
+      </c>
+      <c r="D36" s="20">
+        <f t="shared" si="24"/>
+        <v>184.63157894736841</v>
+      </c>
+      <c r="E36" s="20">
+        <f t="shared" si="25"/>
+        <v>17.64296408849567</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="26"/>
+        <v>70.16</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="27"/>
+        <v>2.3539999999999996</v>
+      </c>
+      <c r="H36" s="19">
+        <f t="shared" si="28"/>
+        <v>115.39473684210526</v>
+      </c>
+      <c r="I36" s="19">
+        <f t="shared" si="29"/>
+        <v>11.026852555309794</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="4">
+        <f t="shared" si="31"/>
+        <v>2.6065749999999999E-2</v>
+      </c>
+      <c r="C37" s="4">
+        <f t="shared" si="32"/>
+        <v>0.80262999999999995</v>
+      </c>
+      <c r="D37" s="20">
+        <f t="shared" si="24"/>
+        <v>167.03710640777504</v>
+      </c>
+      <c r="E37" s="20">
+        <f t="shared" si="25"/>
+        <v>14.610569669748264</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="26"/>
+        <v>80.262999999999991</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="27"/>
+        <v>2.6065749999999999</v>
+      </c>
+      <c r="H37" s="19">
+        <f t="shared" si="28"/>
+        <v>104.3981915048594</v>
+      </c>
+      <c r="I37" s="19">
+        <f t="shared" si="29"/>
+        <v>9.1316060435926651</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="4">
+        <f t="shared" si="31"/>
+        <v>2.8513749999999997E-2</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" si="32"/>
+        <v>0.90054999999999996</v>
+      </c>
+      <c r="D38" s="20">
+        <f t="shared" si="24"/>
+        <v>153.83498462589682</v>
+      </c>
+      <c r="E38" s="20">
+        <f t="shared" si="25"/>
+        <v>12.612062005686742</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="26"/>
+        <v>90.054999999999993</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="27"/>
+        <v>2.8513749999999995</v>
+      </c>
+      <c r="H38" s="19">
+        <f t="shared" si="28"/>
+        <v>96.146865391185514</v>
+      </c>
+      <c r="I38" s="19">
+        <f t="shared" si="29"/>
+        <v>7.8825387535542131</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="4">
+        <f t="shared" si="31"/>
+        <v>3.1147750000000002E-2</v>
+      </c>
+      <c r="C39" s="4">
+        <f t="shared" si="32"/>
+        <v>1.0059100000000001</v>
+      </c>
+      <c r="D39" s="20">
+        <f t="shared" si="24"/>
+        <v>143.50052783246312</v>
+      </c>
+      <c r="E39" s="20">
+        <f t="shared" si="25"/>
+        <v>11.167787525577895</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="26"/>
+        <v>100.59100000000001</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="27"/>
+        <v>3.1147750000000003</v>
+      </c>
+      <c r="H39" s="19">
+        <f t="shared" si="28"/>
+        <v>89.687829895289454</v>
+      </c>
+      <c r="I39" s="19">
+        <f t="shared" si="29"/>
+        <v>6.9798672034861839</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="4">
+        <f t="shared" si="31"/>
+        <v>7.7515000000000001E-2</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" si="32"/>
+        <v>1.1006</v>
+      </c>
+      <c r="D40" s="20">
+        <f t="shared" si="24"/>
+        <v>135.63374206667078</v>
+      </c>
+      <c r="E40" s="20">
+        <f t="shared" si="25"/>
+        <v>13.324319204126635</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="26"/>
+        <v>110.06</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="27"/>
+        <v>7.7515000000000001</v>
+      </c>
+      <c r="H40" s="19">
+        <f t="shared" si="28"/>
+        <v>84.771088791669229</v>
+      </c>
+      <c r="I40" s="19">
+        <f t="shared" si="29"/>
+        <v>8.3276995025791472</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="4">
+        <f t="shared" si="31"/>
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="C41" s="4">
+        <f t="shared" si="32"/>
+        <v>1.216</v>
+      </c>
+      <c r="D41" s="20">
+        <f t="shared" si="24"/>
+        <v>128.29710909474571</v>
+      </c>
+      <c r="E41" s="20">
+        <f t="shared" si="25"/>
+        <v>11.970006253017861</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="26"/>
+        <v>121.6</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="27"/>
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="H41" s="19">
+        <f t="shared" si="28"/>
+        <v>80.185693184216063</v>
+      </c>
+      <c r="I41" s="19">
+        <f t="shared" si="29"/>
+        <v>7.4812539081361624</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="4">
+        <f t="shared" si="31"/>
+        <v>8.1402500000000003E-2</v>
+      </c>
+      <c r="C42" s="4">
+        <f t="shared" si="32"/>
+        <v>1.2561</v>
+      </c>
+      <c r="D42" s="20">
+        <f t="shared" si="24"/>
+        <v>125.99807406812982</v>
+      </c>
+      <c r="E42" s="20">
+        <f t="shared" si="25"/>
+        <v>11.569074048850736</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="26"/>
+        <v>125.61</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="27"/>
+        <v>8.14025</v>
+      </c>
+      <c r="H42" s="19">
+        <f t="shared" si="28"/>
+        <v>78.748796292581147</v>
+      </c>
+      <c r="I42" s="19">
+        <f t="shared" si="29"/>
+        <v>7.2306712805317099</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C44" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C45" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C33" s="10">
-        <f>C6/(E6*10^(-3))</f>
-        <v>1144.335825186889</v>
-      </c>
-      <c r="D33" s="10">
-        <f>(F6/E6)+(C6*D6/E6^2)</f>
-        <v>0.98478485153206496</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C34" s="10">
-        <f t="shared" ref="C34:C42" si="17">C7/(E7*10^(-3))</f>
-        <v>330.61851390618517</v>
-      </c>
-      <c r="D34" s="10">
-        <f t="shared" ref="D34:D42" si="18">(F7/E7)+(C7*D7/E7^2)</f>
-        <v>0.17891263292092871</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C35" s="10">
-        <f t="shared" si="17"/>
-        <v>209.51707972837886</v>
-      </c>
-      <c r="D35" s="10">
-        <f t="shared" si="18"/>
-        <v>0.10323528028770218</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C36" s="10">
-        <f t="shared" si="17"/>
-        <v>184.63157894736841</v>
-      </c>
-      <c r="D36" s="10">
-        <f t="shared" si="18"/>
-        <v>9.0617428254847643E-2</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C37" s="10">
-        <f t="shared" si="17"/>
-        <v>167.03710640777504</v>
-      </c>
-      <c r="D37" s="10">
-        <f t="shared" si="18"/>
-        <v>8.2122941761118076E-2</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C38" s="10">
-        <f t="shared" si="17"/>
-        <v>153.83498462589682</v>
-      </c>
-      <c r="D38" s="10">
-        <f t="shared" si="18"/>
-        <v>7.6372807019623609E-2</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C39" s="10">
-        <f t="shared" si="17"/>
-        <v>143.50052783246312</v>
-      </c>
-      <c r="D39" s="10">
-        <f t="shared" si="18"/>
-        <v>7.2036251899596795E-2</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C40" s="10">
-        <f t="shared" si="17"/>
-        <v>135.63374206667078</v>
-      </c>
-      <c r="D40" s="10">
-        <f t="shared" si="18"/>
-        <v>6.9781089348240552E-2</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C41" s="10">
-        <f t="shared" si="17"/>
-        <v>128.29710909474571</v>
-      </c>
-      <c r="D41" s="10">
-        <f t="shared" si="18"/>
-        <v>6.6914442664192622E-2</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C42" s="10">
-        <f t="shared" si="17"/>
-        <v>125.99807406812982</v>
-      </c>
-      <c r="D42" s="10">
-        <f t="shared" si="18"/>
-        <v>6.6075167337833612E-2</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10">
-        <v>10</v>
+      <c r="F45" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C46" s="18">
+        <f>(C7+C9)/2</f>
+        <v>0.54991499999999993</v>
+      </c>
+      <c r="D46" s="21">
+        <f>SQRT((D7/2)^2 +(D9/2)^2)</f>
+        <v>1.4218979904185285E-2</v>
+      </c>
+      <c r="E46" s="20">
+        <f t="shared" ref="E46:E52" si="33">(C9-C7)/(E9-E7) * 10^3</f>
+        <v>116.88306684646504</v>
+      </c>
+      <c r="F46" s="20">
+        <f t="shared" ref="F46:F52" si="34">SQRT((D7/((E9-E7)*10^(-3)))^2+(D9/((E9-E7)*10^(-3)))^2+(10^(-3)*F7*(C9-C7)/((E9-E7)*10^(-3))^2)^2+(10^(-3)*F9*(C9-C7)/((E9-E7)*10^(-3))^2)^2)</f>
+        <v>21.073827970842448</v>
+      </c>
+      <c r="G46">
+        <f>C46*100</f>
+        <v>54.991499999999995</v>
+      </c>
+      <c r="H46">
+        <f>D46*100</f>
+        <v>1.4218979904185285</v>
+      </c>
+      <c r="I46">
+        <f>E46*10/16</f>
+        <v>73.051916779040653</v>
+      </c>
+      <c r="J46">
+        <f>F46*10/16</f>
+        <v>13.171142481776529</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C47" s="18">
+        <f>(C8+C10)/2</f>
+        <v>0.70523000000000002</v>
+      </c>
+      <c r="D47" s="21">
+        <f t="shared" ref="D47:D52" si="35">SQRT((D8/2)^2 +(D10/2)^2)</f>
+        <v>1.6797939911824007E-2</v>
+      </c>
+      <c r="E47" s="20">
+        <f t="shared" si="33"/>
+        <v>102.31092436974787</v>
+      </c>
+      <c r="F47" s="20">
+        <f t="shared" si="34"/>
+        <v>31.66172913242799</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ref="G47:G52" si="36">C47*100</f>
+        <v>70.522999999999996</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ref="H47:H52" si="37">D47*100</f>
+        <v>1.6797939911824007</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ref="I47:I52" si="38">E47*10/16</f>
+        <v>63.944327731092415</v>
+      </c>
+      <c r="J47">
+        <f t="shared" ref="J47:J52" si="39">F47*10/16</f>
+        <v>19.788580707767494</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C48" s="18">
+        <f t="shared" ref="C48:C52" si="40">(C9+C11)/2</f>
+        <v>0.80107499999999998</v>
+      </c>
+      <c r="D48" s="21">
+        <f t="shared" si="35"/>
+        <v>1.8487600838551901E-2</v>
+      </c>
+      <c r="E48" s="20">
+        <f t="shared" si="33"/>
+        <v>96.859785783836386</v>
+      </c>
+      <c r="F48" s="20">
+        <f t="shared" si="34"/>
+        <v>31.889492438727721</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="36"/>
+        <v>80.107500000000002</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="37"/>
+        <v>1.8487600838551901</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="38"/>
+        <v>60.537366114897743</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="39"/>
+        <v>19.930932774204827</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C49" s="18">
+        <f t="shared" si="40"/>
+        <v>0.90427000000000002</v>
+      </c>
+      <c r="D49" s="21">
+        <f t="shared" si="35"/>
+        <v>2.0307668829317903E-2</v>
+      </c>
+      <c r="E49" s="20">
+        <f t="shared" si="33"/>
+        <v>92.203020819159121</v>
+      </c>
+      <c r="F49" s="20">
+        <f t="shared" si="34"/>
+        <v>32.308771793780608</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="36"/>
+        <v>90.427000000000007</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="37"/>
+        <v>2.0307668829317902</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="38"/>
+        <v>57.626888011974451</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="39"/>
+        <v>20.19298237111288</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C50" s="18">
+        <f t="shared" si="40"/>
+        <v>1.000575</v>
+      </c>
+      <c r="D50" s="21">
+        <f t="shared" si="35"/>
+        <v>4.1296516693489112E-2</v>
+      </c>
+      <c r="E50" s="20">
+        <f t="shared" si="33"/>
+        <v>88.498119884981236</v>
+      </c>
+      <c r="F50" s="20">
+        <f t="shared" si="34"/>
+        <v>45.920807175797648</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="36"/>
+        <v>100.0575</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="37"/>
+        <v>4.1296516693489114</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="38"/>
+        <v>55.311324928113272</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="39"/>
+        <v>28.70050448487353</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C51" s="18">
+        <f t="shared" si="40"/>
+        <v>1.1109550000000001</v>
+      </c>
+      <c r="D51" s="21">
+        <f t="shared" si="35"/>
+        <v>4.3111316177027403E-2</v>
+      </c>
+      <c r="E51" s="20">
+        <f t="shared" si="33"/>
+        <v>85.11870999108659</v>
+      </c>
+      <c r="F51" s="20">
+        <f t="shared" si="34"/>
+        <v>44.510490480594576</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="36"/>
+        <v>111.09550000000002</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="37"/>
+        <v>4.3111316177027401</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="38"/>
+        <v>53.199193744429117</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="39"/>
+        <v>27.819056550371609</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C52" s="18">
+        <f t="shared" si="40"/>
+        <v>1.17835</v>
+      </c>
+      <c r="D52" s="21">
+        <f t="shared" si="35"/>
+        <v>5.6202629456391991E-2</v>
+      </c>
+      <c r="E52" s="20">
+        <f t="shared" si="33"/>
+        <v>83.841052461314433</v>
+      </c>
+      <c r="F52" s="20">
+        <f t="shared" si="34"/>
+        <v>71.856802380486897</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="36"/>
+        <v>117.83500000000001</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="37"/>
+        <v>5.6202629456391993</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="38"/>
+        <v>52.400657788321524</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="39"/>
+        <v>44.910501487804311</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f>C6*100</f>
+        <v>19.900000000000002</v>
+      </c>
+      <c r="C55" s="25">
+        <f>D6*100</f>
+        <v>1.0975000000000001</v>
+      </c>
+      <c r="D55" s="25">
+        <f>E6*20</f>
+        <v>3.4779999999999998</v>
+      </c>
+      <c r="E55" s="25">
+        <f>F6*20</f>
+        <v>3.1739000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="25">
+        <f t="shared" ref="B56:C65" si="41">C7*100</f>
+        <v>39.823</v>
+      </c>
+      <c r="C56" s="25">
+        <f t="shared" si="41"/>
+        <v>1.5955749999999997</v>
+      </c>
+      <c r="D56" s="25">
+        <f t="shared" ref="D56:E64" si="42">E7*20</f>
+        <v>24.089999999999996</v>
+      </c>
+      <c r="E56" s="25">
+        <f t="shared" si="42"/>
+        <v>4.2044999999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="25">
+        <f t="shared" si="41"/>
+        <v>60.783000000000001</v>
+      </c>
+      <c r="C57" s="25">
+        <f t="shared" si="41"/>
+        <v>2.1195749999999998</v>
+      </c>
+      <c r="D57" s="25">
+        <f t="shared" si="42"/>
+        <v>58.021999999999998</v>
+      </c>
+      <c r="E57" s="25">
+        <f t="shared" si="42"/>
+        <v>5.9011000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="25">
+        <f t="shared" si="41"/>
+        <v>70.16</v>
+      </c>
+      <c r="C58" s="25">
+        <f t="shared" si="41"/>
+        <v>2.3539999999999996</v>
+      </c>
+      <c r="D58" s="25">
+        <f t="shared" si="42"/>
+        <v>76</v>
+      </c>
+      <c r="E58" s="25">
+        <f t="shared" si="42"/>
+        <v>6.7999999999999989</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="25">
+        <f t="shared" si="41"/>
+        <v>80.262999999999991</v>
+      </c>
+      <c r="C59" s="25">
+        <f t="shared" si="41"/>
+        <v>2.6065749999999999</v>
+      </c>
+      <c r="D59" s="25">
+        <f t="shared" si="42"/>
+        <v>96.102000000000004</v>
+      </c>
+      <c r="E59" s="25">
+        <f t="shared" si="42"/>
+        <v>7.8051000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="25">
+        <f t="shared" si="41"/>
+        <v>90.054999999999993</v>
+      </c>
+      <c r="C60" s="25">
+        <f t="shared" si="41"/>
+        <v>2.8513749999999995</v>
+      </c>
+      <c r="D60" s="25">
+        <f t="shared" si="42"/>
+        <v>117.08</v>
+      </c>
+      <c r="E60" s="25">
+        <f t="shared" si="42"/>
+        <v>8.8539999999999992</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="25">
+        <f t="shared" si="41"/>
+        <v>100.59100000000001</v>
+      </c>
+      <c r="C61" s="25">
+        <f t="shared" si="41"/>
+        <v>3.1147750000000003</v>
+      </c>
+      <c r="D61" s="26">
+        <f t="shared" si="42"/>
+        <v>140.196</v>
+      </c>
+      <c r="E61" s="26">
+        <f t="shared" si="42"/>
+        <v>10.0098</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="25">
+        <f t="shared" si="41"/>
+        <v>110.06</v>
+      </c>
+      <c r="C62" s="25">
+        <f t="shared" si="41"/>
+        <v>7.7515000000000001</v>
+      </c>
+      <c r="D62" s="26">
+        <f t="shared" si="42"/>
+        <v>162.29</v>
+      </c>
+      <c r="E62" s="26">
+        <f t="shared" si="42"/>
+        <v>11.1145</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="25">
+        <f t="shared" si="41"/>
+        <v>121.6</v>
+      </c>
+      <c r="C63" s="25">
+        <f t="shared" si="41"/>
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="D63" s="26">
+        <f t="shared" si="42"/>
+        <v>189.56</v>
+      </c>
+      <c r="E63" s="26">
+        <f t="shared" si="42"/>
+        <v>12.478</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="25">
+        <f t="shared" si="41"/>
+        <v>125.61</v>
+      </c>
+      <c r="C64" s="25">
+        <f t="shared" si="41"/>
+        <v>8.14025</v>
+      </c>
+      <c r="D64" s="26">
+        <f t="shared" si="42"/>
+        <v>199.38400000000001</v>
+      </c>
+      <c r="E64" s="26">
+        <f t="shared" si="42"/>
+        <v>12.969200000000001</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C44:E44"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>